--- a/src/apps/bid_record/extracted_data/GEM_2025_B_6518743.xlsx
+++ b/src/apps/bid_record/extracted_data/GEM_2025_B_6518743.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bus Hiring Service - Short Term - Local 19-21 A.C. Deluxe ACX 80 Contract Period 3 Days , . Years of Past Experience Required for samesimilar service 3 Year s 5 Past Experience of Similar Services required Yes</t>
+          <t>Bus Hiring Service - Short Term - Local 19-21 A.C. Deluxe</t>
         </is>
       </c>
     </row>
